--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Mst1-Mst1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.299108</v>
+        <v>0.2717035</v>
       </c>
       <c r="H2">
-        <v>0.598216</v>
+        <v>0.543407</v>
       </c>
       <c r="I2">
-        <v>0.09566928674233253</v>
+        <v>0.106131609312587</v>
       </c>
       <c r="J2">
-        <v>0.06791276791733164</v>
+        <v>0.07593845458990617</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.117625</v>
+        <v>0.148285</v>
       </c>
       <c r="N2">
-        <v>0.23525</v>
+        <v>0.29657</v>
       </c>
       <c r="O2">
-        <v>0.07754598039874948</v>
+        <v>0.07210734236897795</v>
       </c>
       <c r="P2">
-        <v>0.05590422258079079</v>
+        <v>0.05613626099225484</v>
       </c>
       <c r="Q2">
-        <v>0.0351825785</v>
+        <v>0.0402895534975</v>
       </c>
       <c r="R2">
-        <v>0.140730314</v>
+        <v>0.16115821399</v>
       </c>
       <c r="S2">
-        <v>0.007418768634483262</v>
+        <v>0.007652868288873316</v>
       </c>
       <c r="T2">
-        <v>0.003796610493728096</v>
+        <v>0.004262900906207465</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.299108</v>
+        <v>0.2717035</v>
       </c>
       <c r="H3">
-        <v>0.598216</v>
+        <v>0.543407</v>
       </c>
       <c r="I3">
-        <v>0.09566928674233253</v>
+        <v>0.106131609312587</v>
       </c>
       <c r="J3">
-        <v>0.06791276791733164</v>
+        <v>0.07593845458990617</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.8902446666666668</v>
+        <v>0.8902446666666667</v>
       </c>
       <c r="N3">
         <v>2.670734</v>
       </c>
       <c r="O3">
-        <v>0.5869066565052039</v>
+        <v>0.4329040494418855</v>
       </c>
       <c r="P3">
-        <v>0.6346665589376652</v>
+        <v>0.5055299621164944</v>
       </c>
       <c r="Q3">
-        <v>0.2662793017573333</v>
+        <v>0.2418825917896667</v>
       </c>
       <c r="R3">
-        <v>1.597675810544</v>
+        <v>1.451295550738</v>
       </c>
       <c r="S3">
-        <v>0.05614894121218002</v>
+        <v>0.04594480344520302</v>
       </c>
       <c r="T3">
-        <v>0.04310196272202514</v>
+        <v>0.03838916407202039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.299108</v>
+        <v>0.2717035</v>
       </c>
       <c r="H4">
-        <v>0.598216</v>
+        <v>0.543407</v>
       </c>
       <c r="I4">
-        <v>0.09566928674233253</v>
+        <v>0.106131609312587</v>
       </c>
       <c r="J4">
-        <v>0.06791276791733164</v>
+        <v>0.07593845458990617</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09760433333333333</v>
+        <v>0.2316486666666666</v>
       </c>
       <c r="N4">
-        <v>0.292813</v>
+        <v>0.694946</v>
       </c>
       <c r="O4">
-        <v>0.06434706669075177</v>
+        <v>0.112645039731939</v>
       </c>
       <c r="P4">
-        <v>0.06958335016598978</v>
+        <v>0.1315428736268791</v>
       </c>
       <c r="Q4">
-        <v>0.02919423693466667</v>
+        <v>0.06293975350366665</v>
       </c>
       <c r="R4">
-        <v>0.175165421608</v>
+        <v>0.377638521022</v>
       </c>
       <c r="S4">
-        <v>0.006156037974265526</v>
+        <v>0.01195519934783099</v>
       </c>
       <c r="T4">
-        <v>0.004725597910733284</v>
+        <v>0.009989162535540523</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.299108</v>
+        <v>0.2717035</v>
       </c>
       <c r="H5">
-        <v>0.598216</v>
+        <v>0.543407</v>
       </c>
       <c r="I5">
-        <v>0.09566928674233253</v>
+        <v>0.106131609312587</v>
       </c>
       <c r="J5">
-        <v>0.06791276791733164</v>
+        <v>0.07593845458990617</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.224811</v>
+        <v>0.738021</v>
       </c>
       <c r="N5">
-        <v>0.449622</v>
+        <v>1.476042</v>
       </c>
       <c r="O5">
-        <v>0.1482098992512074</v>
+        <v>0.3588814305054151</v>
       </c>
       <c r="P5">
-        <v>0.106847049373944</v>
+        <v>0.27939265248518</v>
       </c>
       <c r="Q5">
-        <v>0.067242768588</v>
+        <v>0.2005228887735</v>
       </c>
       <c r="R5">
-        <v>0.268971074352</v>
+        <v>0.802091555094</v>
       </c>
       <c r="S5">
-        <v>0.01417913534951598</v>
+        <v>0.03808866377194304</v>
       </c>
       <c r="T5">
-        <v>0.007256278866784331</v>
+        <v>0.02121664625349927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.299108</v>
+        <v>0.2717035</v>
       </c>
       <c r="H6">
-        <v>0.598216</v>
+        <v>0.543407</v>
       </c>
       <c r="I6">
-        <v>0.09566928674233253</v>
+        <v>0.106131609312587</v>
       </c>
       <c r="J6">
-        <v>0.06791276791733164</v>
+        <v>0.07593845458990617</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,90 +809,90 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.09734100000000001</v>
+        <v>0.04824866666666667</v>
       </c>
       <c r="N6">
-        <v>0.292023</v>
+        <v>0.144746</v>
       </c>
       <c r="O6">
-        <v>0.06417346038677725</v>
+        <v>0.02346213795178223</v>
       </c>
       <c r="P6">
-        <v>0.06939561653861964</v>
+        <v>0.02739825077919183</v>
       </c>
       <c r="Q6">
-        <v>0.029115471828</v>
+        <v>0.01310933160366667</v>
       </c>
       <c r="R6">
-        <v>0.174692830968</v>
+        <v>0.078655989622</v>
       </c>
       <c r="S6">
-        <v>0.006139429182990311</v>
+        <v>0.002490074458736571</v>
       </c>
       <c r="T6">
-        <v>0.004712848400467417</v>
+        <v>0.00208058082263852</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.5984986666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.795496</v>
+      </c>
+      <c r="I7">
+        <v>0.233782879737548</v>
+      </c>
+      <c r="J7">
+        <v>0.2509117318370175</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0.5</v>
       </c>
-      <c r="G7">
-        <v>0.299108</v>
-      </c>
-      <c r="H7">
-        <v>0.598216</v>
-      </c>
-      <c r="I7">
-        <v>0.09566928674233253</v>
-      </c>
-      <c r="J7">
-        <v>0.06791276791733164</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M7">
-        <v>0.089216</v>
+        <v>0.148285</v>
       </c>
       <c r="N7">
-        <v>0.267648</v>
+        <v>0.29657</v>
       </c>
       <c r="O7">
-        <v>0.05881693676730996</v>
+        <v>0.07210734236897795</v>
       </c>
       <c r="P7">
-        <v>0.06360320240299042</v>
+        <v>0.05613626099225484</v>
       </c>
       <c r="Q7">
-        <v>0.026685219328</v>
+        <v>0.08874837478666667</v>
       </c>
       <c r="R7">
-        <v>0.160111315968</v>
+        <v>0.5324902487199999</v>
       </c>
       <c r="S7">
-        <v>0.005626974388897418</v>
+        <v>0.01685746214924097</v>
       </c>
       <c r="T7">
-        <v>0.004319469523593358</v>
+        <v>0.01408524646442147</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>1.795496</v>
       </c>
       <c r="I8">
-        <v>0.1914289840333158</v>
+        <v>0.233782879737548</v>
       </c>
       <c r="J8">
-        <v>0.2038345733723226</v>
+        <v>0.2509117318370175</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.117625</v>
+        <v>0.8902446666666667</v>
       </c>
       <c r="N8">
-        <v>0.23525</v>
+        <v>2.670734</v>
       </c>
       <c r="O8">
-        <v>0.07754598039874948</v>
+        <v>0.4329040494418855</v>
       </c>
       <c r="P8">
-        <v>0.05590422258079079</v>
+        <v>0.5055299621164944</v>
       </c>
       <c r="Q8">
-        <v>0.07039840566666666</v>
+        <v>0.5328102460071111</v>
       </c>
       <c r="R8">
-        <v>0.422390434</v>
+        <v>4.795292214064</v>
       </c>
       <c r="S8">
-        <v>0.01484454824360004</v>
+        <v>0.1012055553285699</v>
       </c>
       <c r="T8">
-        <v>0.01139521335946685</v>
+        <v>0.1268433982901515</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>1.795496</v>
       </c>
       <c r="I9">
-        <v>0.1914289840333158</v>
+        <v>0.233782879737548</v>
       </c>
       <c r="J9">
-        <v>0.2038345733723226</v>
+        <v>0.2509117318370175</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.8902446666666668</v>
+        <v>0.2316486666666666</v>
       </c>
       <c r="N9">
-        <v>2.670734</v>
+        <v>0.694946</v>
       </c>
       <c r="O9">
-        <v>0.5869066565052039</v>
+        <v>0.112645039731939</v>
       </c>
       <c r="P9">
-        <v>0.6346665589376652</v>
+        <v>0.1315428736268791</v>
       </c>
       <c r="Q9">
-        <v>0.5328102460071111</v>
+        <v>0.1386414181351111</v>
       </c>
       <c r="R9">
-        <v>4.795292214064001</v>
+        <v>1.247772763216</v>
       </c>
       <c r="S9">
-        <v>0.1123509449771815</v>
+        <v>0.02633448177668322</v>
       </c>
       <c r="T9">
-        <v>0.129366987274739</v>
+        <v>0.03300565023253817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>1.795496</v>
       </c>
       <c r="I10">
-        <v>0.1914289840333158</v>
+        <v>0.233782879737548</v>
       </c>
       <c r="J10">
-        <v>0.2038345733723226</v>
+        <v>0.2509117318370175</v>
       </c>
       <c r="K10">
         <v>2</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.09760433333333333</v>
+        <v>0.738021</v>
       </c>
       <c r="N10">
-        <v>0.292813</v>
+        <v>1.476042</v>
       </c>
       <c r="O10">
-        <v>0.06434706669075177</v>
+        <v>0.3588814305054151</v>
       </c>
       <c r="P10">
-        <v>0.06958335016598978</v>
+        <v>0.27939265248518</v>
       </c>
       <c r="Q10">
-        <v>0.05841606336088889</v>
+        <v>0.441704584472</v>
       </c>
       <c r="R10">
-        <v>0.525744570248</v>
+        <v>2.650227506832</v>
       </c>
       <c r="S10">
-        <v>0.01231789360213463</v>
+        <v>0.08390033430788665</v>
       </c>
       <c r="T10">
-        <v>0.01418349249490146</v>
+        <v>0.0701028942975945</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>1.795496</v>
       </c>
       <c r="I11">
-        <v>0.1914289840333158</v>
+        <v>0.233782879737548</v>
       </c>
       <c r="J11">
-        <v>0.2038345733723226</v>
+        <v>0.2509117318370175</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.224811</v>
+        <v>0.04824866666666667</v>
       </c>
       <c r="N11">
-        <v>0.449622</v>
+        <v>0.144746</v>
       </c>
       <c r="O11">
-        <v>0.1482098992512074</v>
+        <v>0.02346213795178223</v>
       </c>
       <c r="P11">
-        <v>0.106847049373944</v>
+        <v>0.02739825077919183</v>
       </c>
       <c r="Q11">
-        <v>0.134549083752</v>
+        <v>0.02887676266844444</v>
       </c>
       <c r="R11">
-        <v>0.8072945025120001</v>
+        <v>0.259890864016</v>
       </c>
       <c r="S11">
-        <v>0.02837167043733873</v>
+        <v>0.005485046175167266</v>
       </c>
       <c r="T11">
-        <v>0.02177912272522935</v>
+        <v>0.006874542552311937</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,61 +1163,61 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.5984986666666666</v>
+        <v>0.3660056666666667</v>
       </c>
       <c r="H12">
-        <v>1.795496</v>
+        <v>1.098017</v>
       </c>
       <c r="I12">
-        <v>0.1914289840333158</v>
+        <v>0.1429675010475007</v>
       </c>
       <c r="J12">
-        <v>0.2038345733723226</v>
+        <v>0.1534424733090391</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.09734100000000001</v>
+        <v>0.148285</v>
       </c>
       <c r="N12">
-        <v>0.292023</v>
+        <v>0.29657</v>
       </c>
       <c r="O12">
-        <v>0.06417346038677725</v>
+        <v>0.07210734236897795</v>
       </c>
       <c r="P12">
-        <v>0.06939561653861964</v>
+        <v>0.05613626099225484</v>
       </c>
       <c r="Q12">
-        <v>0.058258458712</v>
+        <v>0.05427315028166667</v>
       </c>
       <c r="R12">
-        <v>0.5243261284080001</v>
+        <v>0.32563890169</v>
       </c>
       <c r="S12">
-        <v>0.01228466032374301</v>
+        <v>0.01030900654566935</v>
       </c>
       <c r="T12">
-        <v>0.01414522589105883</v>
+        <v>0.008613686728973316</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.5984986666666666</v>
+        <v>0.3660056666666667</v>
       </c>
       <c r="H13">
-        <v>1.795496</v>
+        <v>1.098017</v>
       </c>
       <c r="I13">
-        <v>0.1914289840333158</v>
+        <v>0.1429675010475007</v>
       </c>
       <c r="J13">
-        <v>0.2038345733723226</v>
+        <v>0.1534424733090391</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.089216</v>
+        <v>0.8902446666666667</v>
       </c>
       <c r="N13">
-        <v>0.267648</v>
+        <v>2.670734</v>
       </c>
       <c r="O13">
-        <v>0.05881693676730996</v>
+        <v>0.4329040494418855</v>
       </c>
       <c r="P13">
-        <v>0.06360320240299042</v>
+        <v>0.5055299621164944</v>
       </c>
       <c r="Q13">
-        <v>0.05339565704533333</v>
+        <v>0.3258345927197778</v>
       </c>
       <c r="R13">
-        <v>0.480560913408</v>
+        <v>2.932511334478</v>
       </c>
       <c r="S13">
-        <v>0.01125926644931793</v>
+        <v>0.06189121014205005</v>
       </c>
       <c r="T13">
-        <v>0.01296453162692703</v>
+        <v>0.07756976771897973</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7362753333333334</v>
+        <v>0.3660056666666667</v>
       </c>
       <c r="H14">
-        <v>2.208826</v>
+        <v>1.098017</v>
       </c>
       <c r="I14">
-        <v>0.235496663365651</v>
+        <v>0.1429675010475007</v>
       </c>
       <c r="J14">
-        <v>0.2507580664973321</v>
+        <v>0.1534424733090391</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.117625</v>
+        <v>0.2316486666666666</v>
       </c>
       <c r="N14">
-        <v>0.23525</v>
+        <v>0.694946</v>
       </c>
       <c r="O14">
-        <v>0.07754598039874948</v>
+        <v>0.112645039731939</v>
       </c>
       <c r="P14">
-        <v>0.05590422258079079</v>
+        <v>0.1315428736268791</v>
       </c>
       <c r="Q14">
-        <v>0.08660438608333333</v>
+        <v>0.08478472467577777</v>
       </c>
       <c r="R14">
-        <v>0.5196263165</v>
+        <v>0.763062522082</v>
       </c>
       <c r="S14">
-        <v>0.01826181964132368</v>
+        <v>0.01610457983587175</v>
       </c>
       <c r="T14">
-        <v>0.01401843476339559</v>
+        <v>0.02018426387548669</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7362753333333334</v>
+        <v>0.3660056666666667</v>
       </c>
       <c r="H15">
-        <v>2.208826</v>
+        <v>1.098017</v>
       </c>
       <c r="I15">
-        <v>0.235496663365651</v>
+        <v>0.1429675010475007</v>
       </c>
       <c r="J15">
-        <v>0.2507580664973321</v>
+        <v>0.1534424733090391</v>
       </c>
       <c r="K15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.8902446666666668</v>
+        <v>0.738021</v>
       </c>
       <c r="N15">
-        <v>2.670734</v>
+        <v>1.476042</v>
       </c>
       <c r="O15">
-        <v>0.5869066565052039</v>
+        <v>0.3588814305054151</v>
       </c>
       <c r="P15">
-        <v>0.6346665589376652</v>
+        <v>0.27939265248518</v>
       </c>
       <c r="Q15">
-        <v>0.6554651886982223</v>
+        <v>0.270119868119</v>
       </c>
       <c r="R15">
-        <v>5.899186698284002</v>
+        <v>1.620719208714</v>
       </c>
       <c r="S15">
-        <v>0.1382145593140658</v>
+        <v>0.05130838129171148</v>
       </c>
       <c r="T15">
-        <v>0.159147759189724</v>
+        <v>0.04287069962169886</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7362753333333334</v>
+        <v>0.3660056666666667</v>
       </c>
       <c r="H16">
-        <v>2.208826</v>
+        <v>1.098017</v>
       </c>
       <c r="I16">
-        <v>0.235496663365651</v>
+        <v>0.1429675010475007</v>
       </c>
       <c r="J16">
-        <v>0.2507580664973321</v>
+        <v>0.1534424733090391</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1429,33 +1429,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.09760433333333333</v>
+        <v>0.04824866666666667</v>
       </c>
       <c r="N16">
-        <v>0.292813</v>
+        <v>0.144746</v>
       </c>
       <c r="O16">
-        <v>0.06434706669075177</v>
+        <v>0.02346213795178223</v>
       </c>
       <c r="P16">
-        <v>0.06958335016598978</v>
+        <v>0.02739825077919183</v>
       </c>
       <c r="Q16">
-        <v>0.07186366305977779</v>
+        <v>0.01765928540911111</v>
       </c>
       <c r="R16">
-        <v>0.6467729675380001</v>
+        <v>0.158933568682</v>
       </c>
       <c r="S16">
-        <v>0.01515351950303907</v>
+        <v>0.003354323232198031</v>
       </c>
       <c r="T16">
-        <v>0.01744858634803041</v>
+        <v>0.004204055363900502</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -1464,25 +1464,25 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G17">
-        <v>0.7362753333333334</v>
+        <v>0.2525955</v>
       </c>
       <c r="H17">
-        <v>2.208826</v>
+        <v>0.5051909999999999</v>
       </c>
       <c r="I17">
-        <v>0.235496663365651</v>
+        <v>0.09866772757847271</v>
       </c>
       <c r="J17">
-        <v>0.2507580664973321</v>
+        <v>0.07059795661949383</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1491,33 +1491,33 @@
         <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.224811</v>
+        <v>0.148285</v>
       </c>
       <c r="N17">
-        <v>0.449622</v>
+        <v>0.29657</v>
       </c>
       <c r="O17">
-        <v>0.1482098992512074</v>
+        <v>0.07210734236897795</v>
       </c>
       <c r="P17">
-        <v>0.106847049373944</v>
+        <v>0.05613626099225484</v>
       </c>
       <c r="Q17">
-        <v>0.165522793962</v>
+        <v>0.0374561237175</v>
       </c>
       <c r="R17">
-        <v>0.9931367637720001</v>
+        <v>0.14982449487</v>
       </c>
       <c r="S17">
-        <v>0.03490293675141865</v>
+        <v>0.00711466761326998</v>
       </c>
       <c r="T17">
-        <v>0.02679275951195517</v>
+        <v>0.003963105318311792</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,117 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G18">
-        <v>0.7362753333333334</v>
+        <v>0.2525955</v>
       </c>
       <c r="H18">
-        <v>2.208826</v>
+        <v>0.5051909999999999</v>
       </c>
       <c r="I18">
-        <v>0.235496663365651</v>
+        <v>0.09866772757847271</v>
       </c>
       <c r="J18">
-        <v>0.2507580664973321</v>
+        <v>0.07059795661949383</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.09734100000000001</v>
+        <v>0.8902446666666667</v>
       </c>
       <c r="N18">
-        <v>0.292023</v>
+        <v>2.670734</v>
       </c>
       <c r="O18">
-        <v>0.06417346038677725</v>
+        <v>0.4329040494418855</v>
       </c>
       <c r="P18">
-        <v>0.06939561653861964</v>
+        <v>0.5055299621164944</v>
       </c>
       <c r="Q18">
-        <v>0.07166977722200002</v>
+        <v>0.224871796699</v>
       </c>
       <c r="R18">
-        <v>0.6450279949980001</v>
+        <v>1.349230780194</v>
       </c>
       <c r="S18">
-        <v>0.01511263579771382</v>
+        <v>0.04271365881794964</v>
       </c>
       <c r="T18">
-        <v>0.01740151062661454</v>
+        <v>0.03568938233535463</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G19">
-        <v>0.7362753333333334</v>
+        <v>0.2525955</v>
       </c>
       <c r="H19">
-        <v>2.208826</v>
+        <v>0.5051909999999999</v>
       </c>
       <c r="I19">
-        <v>0.235496663365651</v>
+        <v>0.09866772757847271</v>
       </c>
       <c r="J19">
-        <v>0.2507580664973321</v>
+        <v>0.07059795661949383</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.089216</v>
+        <v>0.2316486666666666</v>
       </c>
       <c r="N19">
-        <v>0.267648</v>
+        <v>0.694946</v>
       </c>
       <c r="O19">
-        <v>0.05881693676730996</v>
+        <v>0.112645039731939</v>
       </c>
       <c r="P19">
-        <v>0.06360320240299042</v>
+        <v>0.1315428736268791</v>
       </c>
       <c r="Q19">
-        <v>0.06568754013866668</v>
+        <v>0.05851341078099999</v>
       </c>
       <c r="R19">
-        <v>0.591187861248</v>
+        <v>0.351080464686</v>
       </c>
       <c r="S19">
-        <v>0.01385119235808998</v>
+        <v>0.0111144300933372</v>
       </c>
       <c r="T19">
-        <v>0.01594901605761234</v>
+        <v>0.009286658085913968</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1659,46 +1659,46 @@
         <v>0.5</v>
       </c>
       <c r="G20">
-        <v>0.2717345</v>
+        <v>0.2525955</v>
       </c>
       <c r="H20">
-        <v>0.543469</v>
+        <v>0.5051909999999999</v>
       </c>
       <c r="I20">
-        <v>0.08691391002007423</v>
+        <v>0.09866772757847271</v>
       </c>
       <c r="J20">
-        <v>0.06169758760592213</v>
+        <v>0.07059795661949383</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.117625</v>
+        <v>0.738021</v>
       </c>
       <c r="N20">
-        <v>0.23525</v>
+        <v>1.476042</v>
       </c>
       <c r="O20">
-        <v>0.07754598039874948</v>
+        <v>0.3588814305054151</v>
       </c>
       <c r="P20">
-        <v>0.05590422258079079</v>
+        <v>0.27939265248518</v>
       </c>
       <c r="Q20">
-        <v>0.0319627705625</v>
+        <v>0.1864207835055</v>
       </c>
       <c r="R20">
-        <v>0.12785108225</v>
+        <v>0.7456831340219999</v>
       </c>
       <c r="S20">
-        <v>0.006739824362795352</v>
+        <v>0.03541001521808088</v>
       </c>
       <c r="T20">
-        <v>0.00344915567021931</v>
+        <v>0.01972455035995405</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1721,51 +1721,51 @@
         <v>0.5</v>
       </c>
       <c r="G21">
-        <v>0.2717345</v>
+        <v>0.2525955</v>
       </c>
       <c r="H21">
-        <v>0.543469</v>
+        <v>0.5051909999999999</v>
       </c>
       <c r="I21">
-        <v>0.08691391002007423</v>
+        <v>0.09866772757847271</v>
       </c>
       <c r="J21">
-        <v>0.06169758760592213</v>
+        <v>0.07059795661949383</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.8902446666666668</v>
+        <v>0.04824866666666667</v>
       </c>
       <c r="N21">
-        <v>2.670734</v>
+        <v>0.144746</v>
       </c>
       <c r="O21">
-        <v>0.5869066565052039</v>
+        <v>0.02346213795178223</v>
       </c>
       <c r="P21">
-        <v>0.6346665589376652</v>
+        <v>0.02739825077919183</v>
       </c>
       <c r="Q21">
-        <v>0.2419101893743334</v>
+        <v>0.012187396081</v>
       </c>
       <c r="R21">
-        <v>1.451461136246</v>
+        <v>0.073124376486</v>
       </c>
       <c r="S21">
-        <v>0.05101035233367591</v>
+        <v>0.002314955835834995</v>
       </c>
       <c r="T21">
-        <v>0.03915739562060574</v>
+        <v>0.001934260519959398</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.6186483333333334</v>
+      </c>
+      <c r="H22">
+        <v>1.855945</v>
+      </c>
+      <c r="I22">
+        <v>0.241653652658933</v>
+      </c>
+      <c r="J22">
+        <v>0.2593591821670745</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>0.5</v>
       </c>
-      <c r="G22">
-        <v>0.2717345</v>
-      </c>
-      <c r="H22">
-        <v>0.543469</v>
-      </c>
-      <c r="I22">
-        <v>0.08691391002007423</v>
-      </c>
-      <c r="J22">
-        <v>0.06169758760592213</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M22">
-        <v>0.09760433333333333</v>
+        <v>0.148285</v>
       </c>
       <c r="N22">
-        <v>0.292813</v>
+        <v>0.29657</v>
       </c>
       <c r="O22">
-        <v>0.06434706669075177</v>
+        <v>0.07210734236897795</v>
       </c>
       <c r="P22">
-        <v>0.06958335016598978</v>
+        <v>0.05613626099225484</v>
       </c>
       <c r="Q22">
-        <v>0.02652246471616667</v>
+        <v>0.09173626810833334</v>
       </c>
       <c r="R22">
-        <v>0.159134788297</v>
+        <v>0.55041760865</v>
       </c>
       <c r="S22">
-        <v>0.005592655164415715</v>
+        <v>0.01742500266699176</v>
       </c>
       <c r="T22">
-        <v>0.00429312484277971</v>
+        <v>0.01455945474086866</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2717345</v>
+        <v>0.6186483333333334</v>
       </c>
       <c r="H23">
-        <v>0.543469</v>
+        <v>1.855945</v>
       </c>
       <c r="I23">
-        <v>0.08691391002007423</v>
+        <v>0.241653652658933</v>
       </c>
       <c r="J23">
-        <v>0.06169758760592213</v>
+        <v>0.2593591821670745</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.224811</v>
+        <v>0.8902446666666667</v>
       </c>
       <c r="N23">
-        <v>0.449622</v>
+        <v>2.670734</v>
       </c>
       <c r="O23">
-        <v>0.1482098992512074</v>
+        <v>0.4329040494418855</v>
       </c>
       <c r="P23">
-        <v>0.106847049373944</v>
+        <v>0.5055299621164944</v>
       </c>
       <c r="Q23">
-        <v>0.0610889046795</v>
+        <v>0.5507483792922222</v>
       </c>
       <c r="R23">
-        <v>0.244355618718</v>
+        <v>4.956735413630001</v>
       </c>
       <c r="S23">
-        <v>0.01288150184760371</v>
+        <v>0.104612844798475</v>
       </c>
       <c r="T23">
-        <v>0.006592205189183195</v>
+        <v>0.1311138375354861</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,117 +1898,117 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2717345</v>
+        <v>0.6186483333333334</v>
       </c>
       <c r="H24">
-        <v>0.543469</v>
+        <v>1.855945</v>
       </c>
       <c r="I24">
-        <v>0.08691391002007423</v>
+        <v>0.241653652658933</v>
       </c>
       <c r="J24">
-        <v>0.06169758760592213</v>
+        <v>0.2593591821670745</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.09734100000000001</v>
+        <v>0.2316486666666666</v>
       </c>
       <c r="N24">
-        <v>0.292023</v>
+        <v>0.694946</v>
       </c>
       <c r="O24">
-        <v>0.06417346038677725</v>
+        <v>0.112645039731939</v>
       </c>
       <c r="P24">
-        <v>0.06939561653861964</v>
+        <v>0.1315428736268791</v>
       </c>
       <c r="Q24">
-        <v>0.0264509079645</v>
+        <v>0.1433090615522222</v>
       </c>
       <c r="R24">
-        <v>0.158705447787</v>
+        <v>1.28978155397</v>
       </c>
       <c r="S24">
-        <v>0.005577566361733156</v>
+        <v>0.02722108530513371</v>
       </c>
       <c r="T24">
-        <v>0.004281542130858464</v>
+        <v>0.03411685212377419</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2717345</v>
+        <v>0.6186483333333334</v>
       </c>
       <c r="H25">
-        <v>0.543469</v>
+        <v>1.855945</v>
       </c>
       <c r="I25">
-        <v>0.08691391002007423</v>
+        <v>0.241653652658933</v>
       </c>
       <c r="J25">
-        <v>0.06169758760592213</v>
+        <v>0.2593591821670745</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.089216</v>
+        <v>0.738021</v>
       </c>
       <c r="N25">
-        <v>0.267648</v>
+        <v>1.476042</v>
       </c>
       <c r="O25">
-        <v>0.05881693676730996</v>
+        <v>0.3588814305054151</v>
       </c>
       <c r="P25">
-        <v>0.06360320240299042</v>
+        <v>0.27939265248518</v>
       </c>
       <c r="Q25">
-        <v>0.024243065152</v>
+        <v>0.4565754616150001</v>
       </c>
       <c r="R25">
-        <v>0.145458390912</v>
+        <v>2.739452769690001</v>
       </c>
       <c r="S25">
-        <v>0.005112009949850374</v>
+        <v>0.08672500855309659</v>
       </c>
       <c r="T25">
-        <v>0.003924164152275698</v>
+        <v>0.07246304985204592</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.6186483333333334</v>
+      </c>
+      <c r="H26">
+        <v>1.855945</v>
+      </c>
+      <c r="I26">
+        <v>0.241653652658933</v>
+      </c>
+      <c r="J26">
+        <v>0.2593591821670745</v>
+      </c>
+      <c r="K26">
         <v>2</v>
       </c>
-      <c r="F26">
+      <c r="L26">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G26">
-        <v>0.3598703333333333</v>
-      </c>
-      <c r="H26">
-        <v>1.079611</v>
-      </c>
-      <c r="I26">
-        <v>0.1151040363672167</v>
-      </c>
-      <c r="J26">
-        <v>0.122563373905075</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>0.5</v>
-      </c>
       <c r="M26">
-        <v>0.117625</v>
+        <v>0.04824866666666667</v>
       </c>
       <c r="N26">
-        <v>0.23525</v>
+        <v>0.144746</v>
       </c>
       <c r="O26">
-        <v>0.07754598039874948</v>
+        <v>0.02346213795178223</v>
       </c>
       <c r="P26">
-        <v>0.05590422258079079</v>
+        <v>0.02739825077919183</v>
       </c>
       <c r="Q26">
-        <v>0.04232974795833333</v>
+        <v>0.02984895721888889</v>
       </c>
       <c r="R26">
-        <v>0.25397848775</v>
+        <v>0.26864061497</v>
       </c>
       <c r="S26">
-        <v>0.008925855347949135</v>
+        <v>0.005669711335235953</v>
       </c>
       <c r="T26">
-        <v>0.006851810135041998</v>
+        <v>0.007105987914899604</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>0.3598703333333333</v>
+        <v>0.4526103333333334</v>
       </c>
       <c r="H27">
-        <v>1.079611</v>
+        <v>1.357831</v>
       </c>
       <c r="I27">
-        <v>0.1151040363672167</v>
+        <v>0.1767966296649587</v>
       </c>
       <c r="J27">
-        <v>0.122563373905075</v>
+        <v>0.1897502014774688</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M27">
-        <v>0.8902446666666668</v>
+        <v>0.148285</v>
       </c>
       <c r="N27">
-        <v>2.670734</v>
+        <v>0.29657</v>
       </c>
       <c r="O27">
-        <v>0.5869066565052039</v>
+        <v>0.07210734236897795</v>
       </c>
       <c r="P27">
-        <v>0.6346665589376652</v>
+        <v>0.05613626099225484</v>
       </c>
       <c r="Q27">
-        <v>0.3203726449415556</v>
+        <v>0.06711532327833335</v>
       </c>
       <c r="R27">
-        <v>2.883353804474001</v>
+        <v>0.4026919396700001</v>
       </c>
       <c r="S27">
-        <v>0.06755532513453656</v>
+        <v>0.01274833510493258</v>
       </c>
       <c r="T27">
-        <v>0.07778687476812438</v>
+        <v>0.01065186683347213</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>0.3598703333333333</v>
+        <v>0.4526103333333334</v>
       </c>
       <c r="H28">
-        <v>1.079611</v>
+        <v>1.357831</v>
       </c>
       <c r="I28">
-        <v>0.1151040363672167</v>
+        <v>0.1767966296649587</v>
       </c>
       <c r="J28">
-        <v>0.122563373905075</v>
+        <v>0.1897502014774688</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.09760433333333333</v>
+        <v>0.8902446666666667</v>
       </c>
       <c r="N28">
-        <v>0.292813</v>
+        <v>2.670734</v>
       </c>
       <c r="O28">
-        <v>0.06434706669075177</v>
+        <v>0.4329040494418855</v>
       </c>
       <c r="P28">
-        <v>0.06958335016598978</v>
+        <v>0.5055299621164944</v>
       </c>
       <c r="Q28">
-        <v>0.03512490397144444</v>
+        <v>0.4029339353282223</v>
       </c>
       <c r="R28">
-        <v>0.316124135743</v>
+        <v>3.626405417954</v>
       </c>
       <c r="S28">
-        <v>0.007406607104496012</v>
+        <v>0.076535976909638</v>
       </c>
       <c r="T28">
-        <v>0.008528370163961968</v>
+        <v>0.095924412164502</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,60 +2208,60 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>0.3598703333333333</v>
+        <v>0.4526103333333334</v>
       </c>
       <c r="H29">
-        <v>1.079611</v>
+        <v>1.357831</v>
       </c>
       <c r="I29">
-        <v>0.1151040363672167</v>
+        <v>0.1767966296649587</v>
       </c>
       <c r="J29">
-        <v>0.122563373905075</v>
+        <v>0.1897502014774688</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.224811</v>
+        <v>0.2316486666666666</v>
       </c>
       <c r="N29">
-        <v>0.449622</v>
+        <v>0.694946</v>
       </c>
       <c r="O29">
-        <v>0.1482098992512074</v>
+        <v>0.112645039731939</v>
       </c>
       <c r="P29">
-        <v>0.106847049373944</v>
+        <v>0.1315428736268791</v>
       </c>
       <c r="Q29">
-        <v>0.080902809507</v>
+        <v>0.1048465802362222</v>
       </c>
       <c r="R29">
-        <v>0.485416857042</v>
+        <v>0.9436192221260001</v>
       </c>
       <c r="S29">
-        <v>0.0170595576333925</v>
+        <v>0.01991526337308218</v>
       </c>
       <c r="T29">
-        <v>0.0130955348630727</v>
+        <v>0.02496028677362553</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2270,60 +2270,60 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>0.3598703333333333</v>
+        <v>0.4526103333333334</v>
       </c>
       <c r="H30">
-        <v>1.079611</v>
+        <v>1.357831</v>
       </c>
       <c r="I30">
-        <v>0.1151040363672167</v>
+        <v>0.1767966296649587</v>
       </c>
       <c r="J30">
-        <v>0.122563373905075</v>
+        <v>0.1897502014774688</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.09734100000000001</v>
+        <v>0.738021</v>
       </c>
       <c r="N30">
-        <v>0.292023</v>
+        <v>1.476042</v>
       </c>
       <c r="O30">
-        <v>0.06417346038677725</v>
+        <v>0.3588814305054151</v>
       </c>
       <c r="P30">
-        <v>0.06939561653861964</v>
+        <v>0.27939265248518</v>
       </c>
       <c r="Q30">
-        <v>0.035030138117</v>
+        <v>0.3340359308170001</v>
       </c>
       <c r="R30">
-        <v>0.3152712430530001</v>
+        <v>2.004215584902</v>
       </c>
       <c r="S30">
-        <v>0.007386624318169751</v>
+        <v>0.06344902736269648</v>
       </c>
       <c r="T30">
-        <v>0.008505360897196045</v>
+        <v>0.05301481210038734</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0.3598703333333333</v>
+        <v>0.4526103333333334</v>
       </c>
       <c r="H31">
-        <v>1.079611</v>
+        <v>1.357831</v>
       </c>
       <c r="I31">
-        <v>0.1151040363672167</v>
+        <v>0.1767966296649587</v>
       </c>
       <c r="J31">
-        <v>0.122563373905075</v>
+        <v>0.1897502014774688</v>
       </c>
       <c r="K31">
         <v>2</v>
@@ -2359,400 +2359,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M31">
-        <v>0.089216</v>
+        <v>0.04824866666666667</v>
       </c>
       <c r="N31">
-        <v>0.267648</v>
+        <v>0.144746</v>
       </c>
       <c r="O31">
-        <v>0.05881693676730996</v>
+        <v>0.02346213795178223</v>
       </c>
       <c r="P31">
-        <v>0.06360320240299042</v>
+        <v>0.02739825077919183</v>
       </c>
       <c r="Q31">
-        <v>0.03210619165866667</v>
+        <v>0.02183784510288889</v>
       </c>
       <c r="R31">
-        <v>0.288955724928</v>
+        <v>0.1965406059260001</v>
       </c>
       <c r="S31">
-        <v>0.006770066828672732</v>
+        <v>0.004148026914609414</v>
       </c>
       <c r="T31">
-        <v>0.007795423077677878</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>0.860992</v>
-      </c>
-      <c r="H32">
-        <v>2.582976</v>
-      </c>
-      <c r="I32">
-        <v>0.2753871194714096</v>
-      </c>
-      <c r="J32">
-        <v>0.2932336307020167</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0.5</v>
-      </c>
-      <c r="M32">
-        <v>0.117625</v>
-      </c>
-      <c r="N32">
-        <v>0.23525</v>
-      </c>
-      <c r="O32">
-        <v>0.07754598039874948</v>
-      </c>
-      <c r="P32">
-        <v>0.05590422258079079</v>
-      </c>
-      <c r="Q32">
-        <v>0.101274184</v>
-      </c>
-      <c r="R32">
-        <v>0.6076451039999999</v>
-      </c>
-      <c r="S32">
-        <v>0.02135516416859801</v>
-      </c>
-      <c r="T32">
-        <v>0.01639299815893895</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>27</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>0.860992</v>
-      </c>
-      <c r="H33">
-        <v>2.582976</v>
-      </c>
-      <c r="I33">
-        <v>0.2753871194714096</v>
-      </c>
-      <c r="J33">
-        <v>0.2932336307020167</v>
-      </c>
-      <c r="K33">
-        <v>3</v>
-      </c>
-      <c r="L33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>0.8902446666666668</v>
-      </c>
-      <c r="N33">
-        <v>2.670734</v>
-      </c>
-      <c r="O33">
-        <v>0.5869066565052039</v>
-      </c>
-      <c r="P33">
-        <v>0.6346665589376652</v>
-      </c>
-      <c r="Q33">
-        <v>0.7664935360426668</v>
-      </c>
-      <c r="R33">
-        <v>6.898441824384001</v>
-      </c>
-      <c r="S33">
-        <v>0.1616265335335641</v>
-      </c>
-      <c r="T33">
-        <v>0.186105579362447</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>0.860992</v>
-      </c>
-      <c r="H34">
-        <v>2.582976</v>
-      </c>
-      <c r="I34">
-        <v>0.2753871194714096</v>
-      </c>
-      <c r="J34">
-        <v>0.2932336307020167</v>
-      </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M34">
-        <v>0.09760433333333333</v>
-      </c>
-      <c r="N34">
-        <v>0.292813</v>
-      </c>
-      <c r="O34">
-        <v>0.06434706669075177</v>
-      </c>
-      <c r="P34">
-        <v>0.06958335016598978</v>
-      </c>
-      <c r="Q34">
-        <v>0.08403655016533333</v>
-      </c>
-      <c r="R34">
-        <v>0.7563289514879999</v>
-      </c>
-      <c r="S34">
-        <v>0.01772035334240082</v>
-      </c>
-      <c r="T34">
-        <v>0.02040417840558296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>0.860992</v>
-      </c>
-      <c r="H35">
-        <v>2.582976</v>
-      </c>
-      <c r="I35">
-        <v>0.2753871194714096</v>
-      </c>
-      <c r="J35">
-        <v>0.2932336307020167</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0.5</v>
-      </c>
-      <c r="M35">
-        <v>0.224811</v>
-      </c>
-      <c r="N35">
-        <v>0.449622</v>
-      </c>
-      <c r="O35">
-        <v>0.1482098992512074</v>
-      </c>
-      <c r="P35">
-        <v>0.106847049373944</v>
-      </c>
-      <c r="Q35">
-        <v>0.193560472512</v>
-      </c>
-      <c r="R35">
-        <v>1.161362835072</v>
-      </c>
-      <c r="S35">
-        <v>0.04081509723193783</v>
-      </c>
-      <c r="T35">
-        <v>0.03133114821771923</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0.860992</v>
-      </c>
-      <c r="H36">
-        <v>2.582976</v>
-      </c>
-      <c r="I36">
-        <v>0.2753871194714096</v>
-      </c>
-      <c r="J36">
-        <v>0.2932336307020167</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
-      </c>
-      <c r="L36">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M36">
-        <v>0.09734100000000001</v>
-      </c>
-      <c r="N36">
-        <v>0.292023</v>
-      </c>
-      <c r="O36">
-        <v>0.06417346038677725</v>
-      </c>
-      <c r="P36">
-        <v>0.06939561653861964</v>
-      </c>
-      <c r="Q36">
-        <v>0.08380982227200001</v>
-      </c>
-      <c r="R36">
-        <v>0.7542884004480001</v>
-      </c>
-      <c r="S36">
-        <v>0.0176725444024272</v>
-      </c>
-      <c r="T36">
-        <v>0.02034912859242435</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>0.860992</v>
-      </c>
-      <c r="H37">
-        <v>2.582976</v>
-      </c>
-      <c r="I37">
-        <v>0.2753871194714096</v>
-      </c>
-      <c r="J37">
-        <v>0.2932336307020167</v>
-      </c>
-      <c r="K37">
-        <v>2</v>
-      </c>
-      <c r="L37">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M37">
-        <v>0.089216</v>
-      </c>
-      <c r="N37">
-        <v>0.267648</v>
-      </c>
-      <c r="O37">
-        <v>0.05881693676730996</v>
-      </c>
-      <c r="P37">
-        <v>0.06360320240299042</v>
-      </c>
-      <c r="Q37">
-        <v>0.076814262272</v>
-      </c>
-      <c r="R37">
-        <v>0.6913283604479999</v>
-      </c>
-      <c r="S37">
-        <v>0.01619742679248153</v>
-      </c>
-      <c r="T37">
-        <v>0.01865059796490411</v>
+        <v>0.005198823605481867</v>
       </c>
     </row>
   </sheetData>
